--- a/3dkd_postanalysis/Visualization.xlsx
+++ b/3dkd_postanalysis/Visualization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angikar\ANGIKAR_DUKE\THIRD_YEAR\SUMMER_2022\MPI\bicliques-partition-research\3DKD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Angikar\ANGIKAR_DUKE\THIRD_YEAR\SUMMER_2022\MPI\bicliques-partition-research\3dkd_postanalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101CA6DA-328E-4DFE-BBDC-813FF5FC55B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD96C11-C301-41FA-A741-16459E829343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADBF451F-778A-4AA1-9752-7BFAEBE52980}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>5 8 &lt;-&gt; 15 16 18</t>
   </si>
@@ -71,6 +71,42 @@
   </si>
   <si>
     <t>6 9 &lt;-&gt; 14 17 18</t>
+  </si>
+  <si>
+    <t>1 &lt;-&gt; 14</t>
+  </si>
+  <si>
+    <t>2 3 5 6 &lt;-&gt; 11 12 14 15</t>
+  </si>
+  <si>
+    <t>1 2 4 5 &lt;-&gt; 10 13</t>
+  </si>
+  <si>
+    <t>4 6 7 9 &lt;-&gt; 14 17</t>
+  </si>
+  <si>
+    <t>5 6 8 9 &lt;-&gt; 15 18</t>
+  </si>
+  <si>
+    <t>2 3 8 9 &lt;-&gt; 14 15</t>
+  </si>
+  <si>
+    <t>1 2 7 8 &lt;-&gt; 13</t>
+  </si>
+  <si>
+    <t>5 6 8 9 &lt;-&gt; 17 18</t>
+  </si>
+  <si>
+    <t>4 5 7 8 &lt;-&gt; 16</t>
+  </si>
+  <si>
+    <t>1 2 4 5 &lt;-&gt; 10 11</t>
+  </si>
+  <si>
+    <t>1 3 4 6 &lt;-&gt; 11</t>
+  </si>
+  <si>
+    <t>2 3 5 6 &lt;-&gt; 12</t>
   </si>
 </sst>
 </file>
@@ -608,16 +644,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD95D045-8BB0-47BB-A843-B0B24BBC3411}">
-  <dimension ref="B1:AN19"/>
+  <dimension ref="B1:AZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="BA7" sqref="BA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="52"/>
       <c r="D2" s="16"/>
@@ -637,7 +673,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="53"/>
       <c r="C3" s="48"/>
       <c r="D3" s="53"/>
@@ -657,7 +693,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="4"/>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
       <c r="C4" s="52"/>
       <c r="D4" s="17"/>
@@ -676,8 +712,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
       <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="53"/>
       <c r="C5" s="13"/>
       <c r="D5" s="53"/>
@@ -701,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="9"/>
@@ -720,12 +759,18 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="1"/>
       <c r="S6" s="2"/>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
       <c r="AM6" s="28"/>
       <c r="AN6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
@@ -744,12 +789,21 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
       <c r="S7" s="4"/>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
       <c r="AM7" s="11"/>
       <c r="AN7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AZ7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -772,8 +826,11 @@
       <c r="AN8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="53"/>
       <c r="C9" s="48"/>
       <c r="D9" s="53"/>
@@ -796,8 +853,11 @@
       <c r="AN9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AZ9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="49"/>
       <c r="D10" s="9"/>
@@ -820,8 +880,11 @@
       <c r="AN10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="50"/>
       <c r="C11" s="13"/>
       <c r="D11" s="50"/>
@@ -844,8 +907,11 @@
       <c r="AN11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AZ11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
       <c r="D12" s="9"/>
@@ -868,8 +934,11 @@
       <c r="AN12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
@@ -892,8 +961,11 @@
       <c r="AN13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AZ13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
@@ -916,8 +988,11 @@
       <c r="AN14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
@@ -940,8 +1015,11 @@
       <c r="AN15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="AZ15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
@@ -964,8 +1042,11 @@
       <c r="AN16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -984,8 +1065,11 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="36"/>
       <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="AZ17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
@@ -1004,8 +1088,11 @@
       <c r="Q18" s="55"/>
       <c r="R18" s="37"/>
       <c r="S18" s="55"/>
-    </row>
-    <row r="19" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AZ18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
